--- a/scouting_app_data_interface.xlsx
+++ b/scouting_app_data_interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\.spyder-py3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722C27C-BB6E-455C-96E2-D89A3B0A64CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFDEBCA-8F30-4122-9293-AA2F3D2EE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -583,75 +583,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,19 +608,78 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2325,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,24 +2358,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="48">
         <v>2606</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="D3" s="18"/>
       <c r="T3">
         <f ca="1">COUNTIF(T6:T26,"&gt;0")</f>
@@ -2386,7 +2386,7 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="18"/>
@@ -2417,16 +2417,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M6" s="27" t="str">
+      <c r="M6" s="51" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!T:T"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="P6" s="28" t="e">
+      <c r="P6" s="46" t="e">
         <f ca="1">I28+K28+J31</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="32"/>
       <c r="S6">
         <v>2</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="18"/>
@@ -2569,7 +2569,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="47" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!U:U"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
@@ -2613,8 +2613,8 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="32"/>
       <c r="S11">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="18"/>
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="47" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!Z:Z"))&amp;", ")), "Never!")</f>
         <v>Never!</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="18"/>
@@ -2904,10 +2904,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2926,20 +2926,20 @@
       <c r="I19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="38" t="s">
+      <c r="K19" s="57"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="22" t="s">
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="39"/>
       <c r="S19">
         <v>15</v>
       </c>
@@ -2973,22 +2973,22 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="28"/>
       <c r="S20">
         <v>16</v>
       </c>
@@ -3022,22 +3022,22 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="49"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="19"/>
       <c r="S21">
         <v>17</v>
       </c>
@@ -3082,11 +3082,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
       <c r="S22">
         <v>18</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="52" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="18"/>
@@ -3231,15 +3231,15 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="S26">
         <v>22</v>
       </c>
@@ -3272,19 +3272,19 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="7" t="s">
         <v>30</v>
       </c>
@@ -3292,11 +3292,11 @@
         <v>31</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24" t="s">
+      <c r="L27" s="39"/>
+      <c r="M27" s="54" t="s">
         <v>33</v>
       </c>
       <c r="N27" s="18"/>
@@ -3305,10 +3305,10 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!G:G"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3327,31 +3327,31 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!Y:Y"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="54" t="e">
+      <c r="H28" s="25" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!Z:Z"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="I28" s="56" t="e">
-        <f ca="1">AVERAGE(U6:U26)*6+AVERAGE(V6:V26)*4+AVERAGE(W6:W26)*3+H31*3+E29*8+E30*12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="57" t="e">
-        <f ca="1">AVERAGE(X6:X26)*5+AVERAGE(Y6:Y26)*3+AVERAGE(Z6:Z26)*2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="58"/>
+      <c r="I28" s="27" t="e">
+        <f ca="1">(SUM(U6:U26)*6+SUM(V6:V26)*4+SUM(W6:W26)*3)/COUNTIF(T6:T26,"&lt;&gt;0")+H31*3+E29*8+E30*12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="31" t="e">
+        <f ca="1">(SUM(X6:X26)*5+SUM(Y6:Y26)*3+SUM(Z6:Z26)*2)/COUNTIF(T6:T26,"&lt;&gt;0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!F:F"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3370,22 +3370,22 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!W:W"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="58"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!R:R"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3407,18 +3407,18 @@
       <c r="H30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="M30" s="50"/>
+      <c r="K30" s="32"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="18"/>
@@ -3428,26 +3428,26 @@
       </c>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="51" t="e">
+      <c r="H31" s="22" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!E:E"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="53" t="e">
+      <c r="J31" s="24" t="e">
         <f ca="1">G29*6+G30*10</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="M31" s="50"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H32" s="52"/>
+      <c r="H32" s="23"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="M32" s="50"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="8"/>
-      <c r="M33" s="50"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
@@ -3463,39 +3463,76 @@
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="8"/>
-      <c r="M34" s="25"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="25"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="25"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="25"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:B3" name="Team Number"/>
   </protectedRanges>
   <mergeCells count="54">
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="F24:I25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="P20:Q22"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="P11:Q13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:L21"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M20:O22"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="M33:Q33"/>
     <mergeCell ref="M34:Q34"/>
@@ -3512,51 +3549,25 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M20:O22"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:L21"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="P11:Q13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="P20:Q22"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="C28:C31">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 D25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3575,8 +3586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3 D25">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G28:G30">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3611,24 +3622,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G30">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="J2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3657,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5594,15 +5593,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q36">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5642,15 +5641,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q2:Q36">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/scouting_app_data_interface.xlsx
+++ b/scouting_app_data_interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFDEBCA-8F30-4122-9293-AA2F3D2EE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC0669-FF17-4B97-B48E-124055092DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Team Number</t>
   </si>
@@ -77,39 +77,6 @@
   </si>
   <si>
     <t>Broke/Shut Off</t>
-  </si>
-  <si>
-    <t>BOT CAPABILITIES</t>
-  </si>
-  <si>
-    <t>Drive Base</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Hub</t>
-  </si>
-  <si>
-    <t>Climb</t>
-  </si>
-  <si>
-    <t>Auton</t>
-  </si>
-  <si>
-    <t>Tarmac?</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Shooting Locations</t>
-  </si>
-  <si>
-    <t>Preferred Strategy</t>
-  </si>
-  <si>
-    <t>Drive Team Op.</t>
   </si>
   <si>
     <t>INGAME STATISTICS</t>
@@ -166,20 +133,32 @@
     <t>Teleop Cone</t>
   </si>
   <si>
-    <t>AVG Auton (Cargo + Tarmac)</t>
+    <t>AVG Total</t>
   </si>
   <si>
-    <t>AVG Teleop (Cargo)</t>
+    <t>AVG Endgame Score</t>
   </si>
   <si>
-    <t>AVG Total</t>
+    <t>AVG Auton Score</t>
+  </si>
+  <si>
+    <t>AVG Teleop Score</t>
+  </si>
+  <si>
+    <t>Upper Teleop</t>
+  </si>
+  <si>
+    <t>Middle Teleop</t>
+  </si>
+  <si>
+    <t>Lower Teleop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -320,41 +292,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,15 +371,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -508,17 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -551,9 +468,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,11 +487,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,109 +500,94 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom"/>
@@ -1996,8 +1898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E101" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H101" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2007,19 +1909,28 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A101"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Team Number" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AVG Endgame" dataDxfId="3">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Team Number" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AVG Endgame Score" dataDxfId="6">
       <calculatedColumnFormula array="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$J$31"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AVG Auton (Cargo + Tarmac)" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AVG Auton Score" dataDxfId="5">
       <calculatedColumnFormula array="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$I$28"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="AVG Teleop (Cargo)" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="AVG Teleop Score" dataDxfId="4">
       <calculatedColumnFormula array="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$K$28"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AVG Total" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AVG Total" dataDxfId="3">
       <calculatedColumnFormula array="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$P$6"),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{546F6F46-D088-47A5-9061-BA82F1154E4D}" name="Upper Teleop" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$X$6:$X$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1C8F0397-BAE5-473C-9773-097A7FD671F4}" name="Middle Teleop" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$Y$6:$Y$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{ED3D8701-8037-4B2D-A166-153E69C752DD}" name="Lower Teleop" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$Z$6:$Z$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2339,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,24 +2269,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="31">
         <v>2606</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="D3" s="18"/>
       <c r="T3">
         <f ca="1">COUNTIF(T6:T26,"&gt;0")</f>
@@ -2386,7 +2297,7 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="18"/>
@@ -2417,16 +2328,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M6" s="51" t="str">
+      <c r="M6" s="34" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!T:T"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="P6" s="46" t="e">
+      <c r="P6" s="35" t="e">
         <f ca="1">I28+K28+J31</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="32"/>
+      <c r="Q6" s="36"/>
       <c r="S6">
         <v>2</v>
       </c>
@@ -2532,7 +2443,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="30" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="18"/>
@@ -2569,7 +2480,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M10" s="47" t="str">
+      <c r="M10" s="17" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!U:U"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
@@ -2613,8 +2524,8 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="32"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="36"/>
       <c r="S11">
         <v>7</v>
       </c>
@@ -2683,7 +2594,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="30" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="18"/>
@@ -2722,7 +2633,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M14" s="47" t="str">
+      <c r="M14" s="17" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!Z:Z"))&amp;", ")), "Never!")</f>
         <v>Never!</v>
       </c>
@@ -2828,12 +2739,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F17" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="S17">
         <v>13</v>
       </c>
@@ -2867,10 +2776,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="S18">
         <v>14</v>
       </c>
@@ -2904,42 +2813,16 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="39"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
       <c r="S19">
         <v>15</v>
       </c>
@@ -2973,22 +2856,22 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="28"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
       <c r="S20">
         <v>16</v>
       </c>
@@ -3022,22 +2905,22 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="19"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
       <c r="S21">
         <v>17</v>
       </c>
@@ -3071,22 +2954,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
       <c r="S22">
         <v>18</v>
       </c>
@@ -3153,8 +3025,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F24" s="52" t="s">
-        <v>25</v>
+      <c r="F24" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -3231,15 +3103,15 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="B26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="S26">
         <v>22</v>
       </c>
@@ -3272,32 +3144,32 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>27</v>
+      <c r="A27" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="39"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="23"/>
       <c r="H27" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="54" t="s">
-        <v>33</v>
+      <c r="K27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -3305,121 +3177,121 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="19"/>
+      <c r="A28" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!G:G"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!M:M"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!Y:Y"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="25" t="e">
+      <c r="H28" s="44" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!Z:Z"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="I28" s="27" t="e">
+      <c r="I28" s="46" t="e">
         <f ca="1">(SUM(U6:U26)*6+SUM(V6:V26)*4+SUM(W6:W26)*3)/COUNTIF(T6:T26,"&lt;&gt;0")+H31*3+E29*8+E30*12</f>
         <v>#REF!</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="31" t="e">
+      <c r="J28" s="25"/>
+      <c r="K28" s="47" t="e">
         <f ca="1">(SUM(X6:X26)*5+SUM(Y6:Y26)*3+SUM(Z6:Z26)*2)/COUNTIF(T6:T26,"&lt;&gt;0")</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="19"/>
+      <c r="A29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!F:F"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E29" s="13" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!K:K"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G29" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!W:W"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="19"/>
+      <c r="A30" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!R:R"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E30" s="13" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!L:L"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G30" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!X:X"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="M30" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>42</v>
+      <c r="A31" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="11" t="e">
@@ -3428,26 +3300,26 @@
       </c>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="22" t="e">
+      <c r="H31" s="41" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!E:E"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="24" t="e">
+      <c r="J31" s="43" t="e">
         <f ca="1">G29*6+G30*10</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H32" s="23"/>
+      <c r="H32" s="42"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="39"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -3455,7 +3327,7 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="8"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="39"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
@@ -3463,28 +3335,28 @@
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="8"/>
-      <c r="M34" s="21"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="21"/>
+      <c r="M35" s="30"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="21"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="21"/>
+      <c r="M37" s="30"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
@@ -3494,45 +3366,7 @@
   <protectedRanges>
     <protectedRange sqref="A2:B3" name="Team Number"/>
   </protectedRanges>
-  <mergeCells count="54">
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="P20:Q22"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="P11:Q13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:L21"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M20:O22"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:Q30"/>
+  <mergeCells count="38">
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="M33:Q33"/>
     <mergeCell ref="M34:Q34"/>
@@ -3549,6 +3383,28 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="P11:Q13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="F24:I25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="M27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C31">
     <cfRule type="colorScale" priority="3">
@@ -3654,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,24 +3529,33 @@
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -3710,8 +3575,20 @@
         <f t="array" aca="1" ref="E2" ca="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F33" ca="1" si="0">IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$X$6:$X$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G33" ca="1" si="1">IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$Y$6:$Y$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H33" ca="1" si="2">IFERROR(SUM(INDIRECT("'"&amp;$A2&amp;" Summary"&amp;"'!$Z$6:$Z$26"))/COUNTIF(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -3731,8 +3608,20 @@
         <f t="array" aca="1" ref="E3" ca="1">IFERROR(INDIRECT("'"&amp;A3&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f ca="1">IFERROR(SUM(INDIRECT("'"&amp;$A3&amp;" Summary"&amp;"'!$Z$6:$Z$26"))/COUNTIF(INDIRECT("'"&amp;A3&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>272</v>
       </c>
@@ -3752,8 +3641,20 @@
         <f t="array" aca="1" ref="E4" ca="1">IFERROR(INDIRECT("'"&amp;A4&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>341</v>
       </c>
@@ -3773,8 +3674,20 @@
         <f t="array" aca="1" ref="E5" ca="1">IFERROR(INDIRECT("'"&amp;A5&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>365</v>
       </c>
@@ -3794,8 +3707,20 @@
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(INDIRECT("'"&amp;A6&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>423</v>
       </c>
@@ -3815,8 +3740,20 @@
         <f t="array" aca="1" ref="E7" ca="1">IFERROR(INDIRECT("'"&amp;A7&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>433</v>
       </c>
@@ -3836,8 +3773,20 @@
         <f t="array" aca="1" ref="E8" ca="1">IFERROR(INDIRECT("'"&amp;A8&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>708</v>
       </c>
@@ -3857,8 +3806,20 @@
         <f t="array" aca="1" ref="E9" ca="1">IFERROR(INDIRECT("'"&amp;A9&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>709</v>
       </c>
@@ -3878,8 +3839,20 @@
         <f t="array" aca="1" ref="E10" ca="1">IFERROR(INDIRECT("'"&amp;A10&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>816</v>
       </c>
@@ -3899,8 +3872,20 @@
         <f t="array" aca="1" ref="E11" ca="1">IFERROR(INDIRECT("'"&amp;A11&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1218</v>
       </c>
@@ -3920,8 +3905,20 @@
         <f t="array" aca="1" ref="E12" ca="1">IFERROR(INDIRECT("'"&amp;A12&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1391</v>
       </c>
@@ -3941,8 +3938,20 @@
         <f t="array" aca="1" ref="E13" ca="1">IFERROR(INDIRECT("'"&amp;A13&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1640</v>
       </c>
@@ -3962,8 +3971,20 @@
         <f t="array" aca="1" ref="E14" ca="1">IFERROR(INDIRECT("'"&amp;A14&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1807</v>
       </c>
@@ -3983,8 +4004,20 @@
         <f t="array" aca="1" ref="E15" ca="1">IFERROR(INDIRECT("'"&amp;A15&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2095</v>
       </c>
@@ -4004,8 +4037,20 @@
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(INDIRECT("'"&amp;A16&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2180</v>
       </c>
@@ -4025,8 +4070,20 @@
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(INDIRECT("'"&amp;A17&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2234</v>
       </c>
@@ -4046,8 +4103,20 @@
         <f t="array" aca="1" ref="E18" ca="1">IFERROR(INDIRECT("'"&amp;A18&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2539</v>
       </c>
@@ -4067,8 +4136,20 @@
         <f t="array" aca="1" ref="E19" ca="1">IFERROR(INDIRECT("'"&amp;A19&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2559</v>
       </c>
@@ -4088,8 +4169,20 @@
         <f t="array" aca="1" ref="E20" ca="1">IFERROR(INDIRECT("'"&amp;A20&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2590</v>
       </c>
@@ -4109,8 +4202,20 @@
         <f t="array" aca="1" ref="E21" ca="1">IFERROR(INDIRECT("'"&amp;A21&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2607</v>
       </c>
@@ -4130,8 +4235,20 @@
         <f t="array" aca="1" ref="E22" ca="1">IFERROR(INDIRECT("'"&amp;A22&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3637</v>
       </c>
@@ -4151,8 +4268,20 @@
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(INDIRECT("'"&amp;A23&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4653</v>
       </c>
@@ -4172,8 +4301,20 @@
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(INDIRECT("'"&amp;A24&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5113</v>
       </c>
@@ -4193,8 +4334,20 @@
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(INDIRECT("'"&amp;A25&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5181</v>
       </c>
@@ -4214,8 +4367,20 @@
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(INDIRECT("'"&amp;A26&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5310</v>
       </c>
@@ -4235,8 +4400,20 @@
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(INDIRECT("'"&amp;A27&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5407</v>
       </c>
@@ -4256,8 +4433,20 @@
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(INDIRECT("'"&amp;A28&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5490</v>
       </c>
@@ -4277,8 +4466,20 @@
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(INDIRECT("'"&amp;A29&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5684</v>
       </c>
@@ -4298,8 +4499,20 @@
         <f t="array" aca="1" ref="E30" ca="1">IFERROR(INDIRECT("'"&amp;A30&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5895</v>
       </c>
@@ -4319,8 +4532,20 @@
         <f t="array" aca="1" ref="E31" ca="1">IFERROR(INDIRECT("'"&amp;A31&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6226</v>
       </c>
@@ -4340,8 +4565,20 @@
         <f t="array" aca="1" ref="E32" ca="1">IFERROR(INDIRECT("'"&amp;A32&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>6808</v>
       </c>
@@ -4361,8 +4598,20 @@
         <f t="array" aca="1" ref="E33" ca="1">IFERROR(INDIRECT("'"&amp;A33&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7110</v>
       </c>
@@ -4382,8 +4631,20 @@
         <f t="array" aca="1" ref="E34" ca="1">IFERROR(INDIRECT("'"&amp;A34&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="str">
+        <f t="shared" ref="F34:F65" ca="1" si="3">IFERROR(SUM(INDIRECT("'"&amp;$A34&amp;" Summary"&amp;"'!$X$6:$X$26"))/COUNTIF(INDIRECT("'"&amp;A34&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" ref="G34:G65" ca="1" si="4">IFERROR(SUM(INDIRECT("'"&amp;$A34&amp;" Summary"&amp;"'!$Y$6:$Y$26"))/COUNTIF(INDIRECT("'"&amp;A34&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" ref="H34:H65" ca="1" si="5">IFERROR(SUM(INDIRECT("'"&amp;$A34&amp;" Summary"&amp;"'!$Z$6:$Z$26"))/COUNTIF(INDIRECT("'"&amp;A34&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7414</v>
       </c>
@@ -4403,8 +4664,20 @@
         <f t="array" aca="1" ref="E35" ca="1">IFERROR(INDIRECT("'"&amp;A35&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="str">
         <f t="array" aca="1" ref="B36" ca="1">IFERROR(INDIRECT("'"&amp;A36&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4421,8 +4694,20 @@
         <f t="array" aca="1" ref="E36" ca="1">IFERROR(INDIRECT("'"&amp;A36&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="str">
         <f t="array" aca="1" ref="B37" ca="1">IFERROR(INDIRECT("'"&amp;A37&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4439,8 +4724,20 @@
         <f t="array" aca="1" ref="E37" ca="1">IFERROR(INDIRECT("'"&amp;A37&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="str">
         <f t="array" aca="1" ref="B38" ca="1">IFERROR(INDIRECT("'"&amp;A38&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4457,8 +4754,20 @@
         <f t="array" aca="1" ref="E38" ca="1">IFERROR(INDIRECT("'"&amp;A38&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="str">
         <f t="array" aca="1" ref="B39" ca="1">IFERROR(INDIRECT("'"&amp;A39&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4475,8 +4784,20 @@
         <f t="array" aca="1" ref="E39" ca="1">IFERROR(INDIRECT("'"&amp;A39&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">IFERROR(INDIRECT("'"&amp;A40&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4493,8 +4814,20 @@
         <f t="array" aca="1" ref="E40" ca="1">IFERROR(INDIRECT("'"&amp;A40&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="str">
         <f t="array" aca="1" ref="B41" ca="1">IFERROR(INDIRECT("'"&amp;A41&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4511,8 +4844,20 @@
         <f t="array" aca="1" ref="E41" ca="1">IFERROR(INDIRECT("'"&amp;A41&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="str">
         <f t="array" aca="1" ref="B42" ca="1">IFERROR(INDIRECT("'"&amp;A42&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4529,8 +4874,20 @@
         <f t="array" aca="1" ref="E42" ca="1">IFERROR(INDIRECT("'"&amp;A42&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="str">
         <f t="array" aca="1" ref="B43" ca="1">IFERROR(INDIRECT("'"&amp;A43&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4547,8 +4904,20 @@
         <f t="array" aca="1" ref="E43" ca="1">IFERROR(INDIRECT("'"&amp;A43&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="str">
         <f t="array" aca="1" ref="B44" ca="1">IFERROR(INDIRECT("'"&amp;A44&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4565,8 +4934,20 @@
         <f t="array" aca="1" ref="E44" ca="1">IFERROR(INDIRECT("'"&amp;A44&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="str">
         <f t="array" aca="1" ref="B45" ca="1">IFERROR(INDIRECT("'"&amp;A45&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4583,8 +4964,20 @@
         <f t="array" aca="1" ref="E45" ca="1">IFERROR(INDIRECT("'"&amp;A45&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="str">
         <f t="array" aca="1" ref="B46" ca="1">IFERROR(INDIRECT("'"&amp;A46&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4601,8 +4994,20 @@
         <f t="array" aca="1" ref="E46" ca="1">IFERROR(INDIRECT("'"&amp;A46&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="str">
         <f t="array" aca="1" ref="B47" ca="1">IFERROR(INDIRECT("'"&amp;A47&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4619,8 +5024,20 @@
         <f t="array" aca="1" ref="E47" ca="1">IFERROR(INDIRECT("'"&amp;A47&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="str">
         <f t="array" aca="1" ref="B48" ca="1">IFERROR(INDIRECT("'"&amp;A48&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4637,8 +5054,20 @@
         <f t="array" aca="1" ref="E48" ca="1">IFERROR(INDIRECT("'"&amp;A48&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="str">
         <f t="array" aca="1" ref="B49" ca="1">IFERROR(INDIRECT("'"&amp;A49&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4655,8 +5084,20 @@
         <f t="array" aca="1" ref="E49" ca="1">IFERROR(INDIRECT("'"&amp;A49&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="str">
         <f t="array" aca="1" ref="B50" ca="1">IFERROR(INDIRECT("'"&amp;A50&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4673,8 +5114,20 @@
         <f t="array" aca="1" ref="E50" ca="1">IFERROR(INDIRECT("'"&amp;A50&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="str">
         <f t="array" aca="1" ref="B51" ca="1">IFERROR(INDIRECT("'"&amp;A51&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4691,8 +5144,20 @@
         <f t="array" aca="1" ref="E51" ca="1">IFERROR(INDIRECT("'"&amp;A51&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="str">
         <f t="array" aca="1" ref="B52" ca="1">IFERROR(INDIRECT("'"&amp;A52&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4709,8 +5174,20 @@
         <f t="array" aca="1" ref="E52" ca="1">IFERROR(INDIRECT("'"&amp;A52&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="str">
         <f t="array" aca="1" ref="B53" ca="1">IFERROR(INDIRECT("'"&amp;A53&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4727,8 +5204,20 @@
         <f t="array" aca="1" ref="E53" ca="1">IFERROR(INDIRECT("'"&amp;A53&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="str">
         <f t="array" aca="1" ref="B54" ca="1">IFERROR(INDIRECT("'"&amp;A54&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4745,8 +5234,20 @@
         <f t="array" aca="1" ref="E54" ca="1">IFERROR(INDIRECT("'"&amp;A54&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="str">
         <f t="array" aca="1" ref="B55" ca="1">IFERROR(INDIRECT("'"&amp;A55&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4763,8 +5264,20 @@
         <f t="array" aca="1" ref="E55" ca="1">IFERROR(INDIRECT("'"&amp;A55&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="str">
         <f t="array" aca="1" ref="B56" ca="1">IFERROR(INDIRECT("'"&amp;A56&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4781,8 +5294,20 @@
         <f t="array" aca="1" ref="E56" ca="1">IFERROR(INDIRECT("'"&amp;A56&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="str">
         <f t="array" aca="1" ref="B57" ca="1">IFERROR(INDIRECT("'"&amp;A57&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4799,8 +5324,20 @@
         <f t="array" aca="1" ref="E57" ca="1">IFERROR(INDIRECT("'"&amp;A57&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="str">
         <f t="array" aca="1" ref="B58" ca="1">IFERROR(INDIRECT("'"&amp;A58&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4817,8 +5354,20 @@
         <f t="array" aca="1" ref="E58" ca="1">IFERROR(INDIRECT("'"&amp;A58&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="str">
         <f t="array" aca="1" ref="B59" ca="1">IFERROR(INDIRECT("'"&amp;A59&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4835,8 +5384,20 @@
         <f t="array" aca="1" ref="E59" ca="1">IFERROR(INDIRECT("'"&amp;A59&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="str">
         <f t="array" aca="1" ref="B60" ca="1">IFERROR(INDIRECT("'"&amp;A60&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4853,8 +5414,20 @@
         <f t="array" aca="1" ref="E60" ca="1">IFERROR(INDIRECT("'"&amp;A60&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="str">
         <f t="array" aca="1" ref="B61" ca="1">IFERROR(INDIRECT("'"&amp;A61&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4871,8 +5444,20 @@
         <f t="array" aca="1" ref="E61" ca="1">IFERROR(INDIRECT("'"&amp;A61&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="str">
         <f t="array" aca="1" ref="B62" ca="1">IFERROR(INDIRECT("'"&amp;A62&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4889,8 +5474,20 @@
         <f t="array" aca="1" ref="E62" ca="1">IFERROR(INDIRECT("'"&amp;A62&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f t="array" aca="1" ref="B63" ca="1">IFERROR(INDIRECT("'"&amp;A63&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4907,8 +5504,20 @@
         <f t="array" aca="1" ref="E63" ca="1">IFERROR(INDIRECT("'"&amp;A63&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f t="array" aca="1" ref="B64" ca="1">IFERROR(INDIRECT("'"&amp;A64&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4925,8 +5534,20 @@
         <f t="array" aca="1" ref="E64" ca="1">IFERROR(INDIRECT("'"&amp;A64&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f t="array" aca="1" ref="B65" ca="1">IFERROR(INDIRECT("'"&amp;A65&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4943,8 +5564,20 @@
         <f t="array" aca="1" ref="E65" ca="1">IFERROR(INDIRECT("'"&amp;A65&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="str">
         <f t="array" aca="1" ref="B66" ca="1">IFERROR(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4961,8 +5594,20 @@
         <f t="array" aca="1" ref="E66" ca="1">IFERROR(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="str">
+        <f t="shared" ref="F66:F101" ca="1" si="6">IFERROR(SUM(INDIRECT("'"&amp;$A66&amp;" Summary"&amp;"'!$X$6:$X$26"))/COUNTIF(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" ref="G66:G101" ca="1" si="7">IFERROR(SUM(INDIRECT("'"&amp;$A66&amp;" Summary"&amp;"'!$Y$6:$Y$26"))/COUNTIF(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" ref="H66:H101" ca="1" si="8">IFERROR(SUM(INDIRECT("'"&amp;$A66&amp;" Summary"&amp;"'!$Z$6:$Z$26"))/COUNTIF(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$T$6:$T$26"),"&lt;&gt;0"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="str">
         <f t="array" aca="1" ref="B67" ca="1">IFERROR(INDIRECT("'"&amp;A67&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4979,8 +5624,20 @@
         <f t="array" aca="1" ref="E67" ca="1">IFERROR(INDIRECT("'"&amp;A67&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="str">
         <f t="array" aca="1" ref="B68" ca="1">IFERROR(INDIRECT("'"&amp;A68&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4997,8 +5654,20 @@
         <f t="array" aca="1" ref="E68" ca="1">IFERROR(INDIRECT("'"&amp;A68&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="str">
         <f t="array" aca="1" ref="B69" ca="1">IFERROR(INDIRECT("'"&amp;A69&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5015,8 +5684,20 @@
         <f t="array" aca="1" ref="E69" ca="1">IFERROR(INDIRECT("'"&amp;A69&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="str">
         <f t="array" aca="1" ref="B70" ca="1">IFERROR(INDIRECT("'"&amp;A70&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5033,8 +5714,20 @@
         <f t="array" aca="1" ref="E70" ca="1">IFERROR(INDIRECT("'"&amp;A70&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="str">
         <f t="array" aca="1" ref="B71" ca="1">IFERROR(INDIRECT("'"&amp;A71&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5051,8 +5744,20 @@
         <f t="array" aca="1" ref="E71" ca="1">IFERROR(INDIRECT("'"&amp;A71&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="str">
         <f t="array" aca="1" ref="B72" ca="1">IFERROR(INDIRECT("'"&amp;A72&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5069,8 +5774,20 @@
         <f t="array" aca="1" ref="E72" ca="1">IFERROR(INDIRECT("'"&amp;A72&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="str">
         <f t="array" aca="1" ref="B73" ca="1">IFERROR(INDIRECT("'"&amp;A73&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5087,8 +5804,20 @@
         <f t="array" aca="1" ref="E73" ca="1">IFERROR(INDIRECT("'"&amp;A73&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="str">
         <f t="array" aca="1" ref="B74" ca="1">IFERROR(INDIRECT("'"&amp;A74&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5105,8 +5834,20 @@
         <f t="array" aca="1" ref="E74" ca="1">IFERROR(INDIRECT("'"&amp;A74&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="str">
         <f t="array" aca="1" ref="B75" ca="1">IFERROR(INDIRECT("'"&amp;A75&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5123,8 +5864,20 @@
         <f t="array" aca="1" ref="E75" ca="1">IFERROR(INDIRECT("'"&amp;A75&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="str">
         <f t="array" aca="1" ref="B76" ca="1">IFERROR(INDIRECT("'"&amp;A76&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5141,8 +5894,20 @@
         <f t="array" aca="1" ref="E76" ca="1">IFERROR(INDIRECT("'"&amp;A76&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="str">
         <f t="array" aca="1" ref="B77" ca="1">IFERROR(INDIRECT("'"&amp;A77&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5159,8 +5924,20 @@
         <f t="array" aca="1" ref="E77" ca="1">IFERROR(INDIRECT("'"&amp;A77&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="str">
         <f t="array" aca="1" ref="B78" ca="1">IFERROR(INDIRECT("'"&amp;A78&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5177,8 +5954,20 @@
         <f t="array" aca="1" ref="E78" ca="1">IFERROR(INDIRECT("'"&amp;A78&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="str">
         <f t="array" aca="1" ref="B79" ca="1">IFERROR(INDIRECT("'"&amp;A79&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5195,8 +5984,20 @@
         <f t="array" aca="1" ref="E79" ca="1">IFERROR(INDIRECT("'"&amp;A79&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="str">
         <f t="array" aca="1" ref="B80" ca="1">IFERROR(INDIRECT("'"&amp;A80&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5213,8 +6014,20 @@
         <f t="array" aca="1" ref="E80" ca="1">IFERROR(INDIRECT("'"&amp;A80&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="str">
         <f t="array" aca="1" ref="B81" ca="1">IFERROR(INDIRECT("'"&amp;A81&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5231,8 +6044,20 @@
         <f t="array" aca="1" ref="E81" ca="1">IFERROR(INDIRECT("'"&amp;A81&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="str">
         <f t="array" aca="1" ref="B82" ca="1">IFERROR(INDIRECT("'"&amp;A82&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5249,8 +6074,20 @@
         <f t="array" aca="1" ref="E82" ca="1">IFERROR(INDIRECT("'"&amp;A82&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="str">
         <f t="array" aca="1" ref="B83" ca="1">IFERROR(INDIRECT("'"&amp;A83&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5267,8 +6104,20 @@
         <f t="array" aca="1" ref="E83" ca="1">IFERROR(INDIRECT("'"&amp;A83&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="str">
         <f t="array" aca="1" ref="B84" ca="1">IFERROR(INDIRECT("'"&amp;A84&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5285,8 +6134,20 @@
         <f t="array" aca="1" ref="E84" ca="1">IFERROR(INDIRECT("'"&amp;A84&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="str">
         <f t="array" aca="1" ref="B85" ca="1">IFERROR(INDIRECT("'"&amp;A85&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5303,8 +6164,20 @@
         <f t="array" aca="1" ref="E85" ca="1">IFERROR(INDIRECT("'"&amp;A85&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="str">
         <f t="array" aca="1" ref="B86" ca="1">IFERROR(INDIRECT("'"&amp;A86&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5321,8 +6194,20 @@
         <f t="array" aca="1" ref="E86" ca="1">IFERROR(INDIRECT("'"&amp;A86&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="str">
         <f t="array" aca="1" ref="B87" ca="1">IFERROR(INDIRECT("'"&amp;A87&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5339,8 +6224,20 @@
         <f t="array" aca="1" ref="E87" ca="1">IFERROR(INDIRECT("'"&amp;A87&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="str">
         <f t="array" aca="1" ref="B88" ca="1">IFERROR(INDIRECT("'"&amp;A88&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5357,8 +6254,20 @@
         <f t="array" aca="1" ref="E88" ca="1">IFERROR(INDIRECT("'"&amp;A88&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f t="array" aca="1" ref="B89" ca="1">IFERROR(INDIRECT("'"&amp;A89&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5375,8 +6284,20 @@
         <f t="array" aca="1" ref="E89" ca="1">IFERROR(INDIRECT("'"&amp;A89&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="str">
         <f t="array" aca="1" ref="B90" ca="1">IFERROR(INDIRECT("'"&amp;A90&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5393,8 +6314,20 @@
         <f t="array" aca="1" ref="E90" ca="1">IFERROR(INDIRECT("'"&amp;A90&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="str">
         <f t="array" aca="1" ref="B91" ca="1">IFERROR(INDIRECT("'"&amp;A91&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5411,8 +6344,20 @@
         <f t="array" aca="1" ref="E91" ca="1">IFERROR(INDIRECT("'"&amp;A91&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="str">
         <f t="array" aca="1" ref="B92" ca="1">IFERROR(INDIRECT("'"&amp;A92&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5429,8 +6374,20 @@
         <f t="array" aca="1" ref="E92" ca="1">IFERROR(INDIRECT("'"&amp;A92&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="str">
         <f t="array" aca="1" ref="B93" ca="1">IFERROR(INDIRECT("'"&amp;A93&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5447,8 +6404,20 @@
         <f t="array" aca="1" ref="E93" ca="1">IFERROR(INDIRECT("'"&amp;A93&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="str">
         <f t="array" aca="1" ref="B94" ca="1">IFERROR(INDIRECT("'"&amp;A94&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5465,8 +6434,20 @@
         <f t="array" aca="1" ref="E94" ca="1">IFERROR(INDIRECT("'"&amp;A94&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="str">
         <f t="array" aca="1" ref="B95" ca="1">IFERROR(INDIRECT("'"&amp;A95&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5483,8 +6464,20 @@
         <f t="array" aca="1" ref="E95" ca="1">IFERROR(INDIRECT("'"&amp;A95&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="str">
         <f t="array" aca="1" ref="B96" ca="1">IFERROR(INDIRECT("'"&amp;A96&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5501,8 +6494,20 @@
         <f t="array" aca="1" ref="E96" ca="1">IFERROR(INDIRECT("'"&amp;A96&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="str">
         <f t="array" aca="1" ref="B97" ca="1">IFERROR(INDIRECT("'"&amp;A97&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5519,8 +6524,20 @@
         <f t="array" aca="1" ref="E97" ca="1">IFERROR(INDIRECT("'"&amp;A97&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="str">
         <f t="array" aca="1" ref="B98" ca="1">IFERROR(INDIRECT("'"&amp;A98&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5537,8 +6554,20 @@
         <f t="array" aca="1" ref="E98" ca="1">IFERROR(INDIRECT("'"&amp;A98&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="str">
         <f t="array" aca="1" ref="B99" ca="1">IFERROR(INDIRECT("'"&amp;A99&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5555,8 +6584,20 @@
         <f t="array" aca="1" ref="E99" ca="1">IFERROR(INDIRECT("'"&amp;A99&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="str">
         <f t="array" aca="1" ref="B100" ca="1">IFERROR(INDIRECT("'"&amp;A100&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5573,8 +6614,20 @@
         <f t="array" aca="1" ref="E100" ca="1">IFERROR(INDIRECT("'"&amp;A100&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="str">
         <f t="array" aca="1" ref="B101" ca="1">IFERROR(INDIRECT("'"&amp;A101&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5591,9 +6644,105 @@
         <f t="array" aca="1" ref="E101" ca="1">IFERROR(INDIRECT("'"&amp;A101&amp;" Summary"&amp;"'!$P$6"),"")</f>
         <v/>
       </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5605,54 +6754,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q36">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/scouting_app_data_interface.xlsx
+++ b/scouting_app_data_interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC0669-FF17-4B97-B48E-124055092DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A6F1B-DD4F-4D7A-A867-C199D03F5707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,56 +500,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -566,10 +525,50 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2251,7 +2250,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,35 +2268,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="41">
         <v>2606</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="D3" s="18"/>
       <c r="T3">
         <f ca="1">COUNTIF(T6:T26,"&gt;0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="18"/>
@@ -2328,16 +2327,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M6" s="34" t="str">
+      <c r="M6" s="44" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!T:T"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="P6" s="35" t="e">
+      <c r="P6" s="39" t="e">
         <f ca="1">I28+K28+J31</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="32"/>
       <c r="S6">
         <v>2</v>
       </c>
@@ -2443,7 +2442,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="18"/>
@@ -2480,7 +2479,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="40" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!U:U"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
@@ -2524,8 +2523,8 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="36"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="32"/>
       <c r="S11">
         <v>7</v>
       </c>
@@ -2594,7 +2593,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="18"/>
@@ -2633,7 +2632,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="40" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!Z:Z"))&amp;", ")), "Never!")</f>
         <v>Never!</v>
       </c>
@@ -2739,10 +2738,6 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
       <c r="S17">
         <v>13</v>
       </c>
@@ -2776,10 +2771,6 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
       <c r="S18">
         <v>14</v>
       </c>
@@ -2813,16 +2804,6 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
       <c r="S19">
         <v>15</v>
       </c>
@@ -2856,22 +2837,6 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
       <c r="S20">
         <v>16</v>
       </c>
@@ -2905,22 +2870,6 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
       <c r="S21">
         <v>17</v>
       </c>
@@ -2954,11 +2903,6 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
       <c r="S22">
         <v>18</v>
       </c>
@@ -3025,7 +2969,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="45" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="18"/>
@@ -3103,20 +3047,21 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="S26">
         <v>22</v>
       </c>
-      <c r="T26">
-        <v>95</v>
+      <c r="T26" t="e">
+        <f t="array" aca="1" ref="T26" ca="1">INDIRECT($A$2&amp;"!B"&amp;$S26)</f>
+        <v>#REF!</v>
       </c>
       <c r="U26" t="e">
         <f t="array" aca="1" ref="U26" ca="1">INDIRECT($A$2&amp;"!H"&amp;$S26)</f>
@@ -3144,19 +3089,19 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
@@ -3164,11 +3109,11 @@
         <v>20</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24" t="s">
+      <c r="L27" s="37"/>
+      <c r="M27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="18"/>
@@ -3177,10 +3122,10 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!G:G"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3199,31 +3144,31 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!Y:Y"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="44" t="e">
+      <c r="H28" s="25" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!Z:Z"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="I28" s="46" t="e">
+      <c r="I28" s="27" t="e">
         <f ca="1">(SUM(U6:U26)*6+SUM(V6:V26)*4+SUM(W6:W26)*3)/COUNTIF(T6:T26,"&lt;&gt;0")+H31*3+E29*8+E30*12</f>
         <v>#REF!</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="47" t="e">
+      <c r="J28" s="28"/>
+      <c r="K28" s="31" t="e">
         <f ca="1">(SUM(X6:X26)*5+SUM(Y6:Y26)*3+SUM(Z6:Z26)*2)/COUNTIF(T6:T26,"&lt;&gt;0")</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="38"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!F:F"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3242,22 +3187,22 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!W:W"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="38"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!R:R"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3279,18 +3224,18 @@
       <c r="H30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="M30" s="39"/>
+      <c r="K30" s="32"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="18"/>
@@ -3300,26 +3245,26 @@
       </c>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="41" t="e">
+      <c r="H31" s="22" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!E:E"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="43" t="e">
+      <c r="J31" s="24" t="e">
         <f ca="1">G29*6+G30*10</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H32" s="42"/>
+      <c r="H32" s="23"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -3327,7 +3272,7 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="8"/>
-      <c r="M33" s="39"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
@@ -3335,28 +3280,28 @@
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="8"/>
-      <c r="M34" s="30"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="30"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="30"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="30"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
@@ -3367,6 +3312,28 @@
     <protectedRange sqref="A2:B3" name="Team Number"/>
   </protectedRanges>
   <mergeCells count="38">
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="F24:I25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="P11:Q13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="M33:Q33"/>
     <mergeCell ref="M34:Q34"/>
@@ -3383,28 +3350,6 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="P11:Q13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="F24:I25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="M27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C31">
     <cfRule type="colorScale" priority="3">
@@ -6706,18 +6651,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q36">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -6754,6 +6687,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/scouting_app_data_interface.xlsx
+++ b/scouting_app_data_interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3A6F1B-DD4F-4D7A-A867-C199D03F5707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA2D2B5-D6D2-4D02-ADFB-BF9643BFDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1890" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,11 +474,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,17 +509,54 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,46 +577,13 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2249,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -2268,24 +2281,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="26">
         <v>2606</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="D3" s="18"/>
       <c r="T3">
         <f ca="1">COUNTIF(T6:T26,"&gt;0")</f>
@@ -2296,7 +2309,7 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="18"/>
@@ -2327,16 +2340,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M6" s="44" t="str">
+      <c r="M6" s="29" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!T:T"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="P6" s="39" t="e">
+      <c r="P6" s="30" t="e">
         <f ca="1">I28+K28+J31</f>
         <v>#REF!</v>
       </c>
-      <c r="Q6" s="32"/>
+      <c r="Q6" s="31"/>
       <c r="S6">
         <v>2</v>
       </c>
@@ -2442,7 +2455,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="25" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="18"/>
@@ -2479,7 +2492,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M10" s="40" t="str">
+      <c r="M10" s="17" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!U:U"))&amp;", ")), "Never")</f>
         <v>Never</v>
       </c>
@@ -2523,8 +2536,8 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
       <c r="S11">
         <v>7</v>
       </c>
@@ -2593,7 +2606,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="18"/>
@@ -2632,7 +2645,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M14" s="40" t="str">
+      <c r="M14" s="17" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IFERROR(_xlfn.CONCAT(TRANSPOSE(_xlfn._xlws.FILTER(INDIRECT(A2&amp;"!B:B"),1=INDIRECT(A2&amp;"!Z:Z"))&amp;", ")), "Never!")</f>
         <v>Never!</v>
       </c>
@@ -2969,7 +2982,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="18"/>
@@ -3047,15 +3060,15 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="S26">
         <v>22</v>
       </c>
@@ -3089,19 +3102,19 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
@@ -3109,11 +3122,11 @@
         <v>20</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="23"/>
+      <c r="M27" s="24" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="18"/>
@@ -3122,10 +3135,10 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!G:G"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3144,31 +3157,31 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!Y:Y"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="25" t="e">
+      <c r="H28" s="40" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!Z:Z"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="I28" s="27" t="e">
+      <c r="I28" s="42" t="e">
         <f ca="1">(SUM(U6:U26)*6+SUM(V6:V26)*4+SUM(W6:W26)*3)/COUNTIF(T6:T26,"&lt;&gt;0")+H31*3+E29*8+E30*12</f>
         <v>#REF!</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="31" t="e">
+      <c r="J28" s="43"/>
+      <c r="K28" s="46" t="e">
         <f ca="1">(SUM(X6:X26)*5+SUM(Y6:Y26)*3+SUM(Z6:Z26)*2)/COUNTIF(T6:T26,"&lt;&gt;0")</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="35"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!F:F"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3187,22 +3200,22 @@
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!W:W"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="11" t="e">
         <f ca="1">COUNTIF(INDIRECT($A$2&amp;"!R:R"),1)/COUNT(INDIRECT($A$2&amp;"!E:E"))</f>
         <v>#REF!</v>
@@ -3224,18 +3237,18 @@
       <c r="H30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="M30" s="20"/>
+      <c r="K30" s="31"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="18"/>
@@ -3245,26 +3258,26 @@
       </c>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="22" t="e">
+      <c r="H31" s="37" t="e">
         <f ca="1">COUNTIF(INDIRECT(A2&amp;"!E:E"),1)/COUNT(INDIRECT(A2&amp;"!E:E"))</f>
         <v>#REF!</v>
       </c>
-      <c r="J31" s="24" t="e">
+      <c r="J31" s="39" t="e">
         <f ca="1">G29*6+G30*10</f>
         <v>#REF!</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="34"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H32" s="23"/>
+      <c r="H32" s="38"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -3272,7 +3285,7 @@
     </row>
     <row r="33" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H33" s="8"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="34"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
@@ -3280,28 +3293,28 @@
     </row>
     <row r="34" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H34" s="8"/>
-      <c r="M34" s="21"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="21"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="21"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="21"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
@@ -3312,44 +3325,44 @@
     <protectedRange sqref="A2:B3" name="Team Number"/>
   </protectedRanges>
   <mergeCells count="38">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="P11:Q13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N7"/>
     <mergeCell ref="M14:N15"/>
     <mergeCell ref="F24:I25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="P11:Q13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:Q30"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="K28:L29"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C31">
     <cfRule type="colorScale" priority="3">
@@ -3457,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,8 +3514,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>25</v>
+      <c r="A2" s="48">
+        <v>2056</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" aca="1" ref="B2" ca="1">IFERROR(INDIRECT("'"&amp;A2&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3534,8 +3547,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>103</v>
+      <c r="A3" s="48">
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="array" aca="1" ref="B3" ca="1">IFERROR(INDIRECT("'"&amp;A3&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3567,8 +3580,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>272</v>
+      <c r="A4" s="48">
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="array" aca="1" ref="B4" ca="1">IFERROR(INDIRECT("'"&amp;A4&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3600,8 +3613,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>341</v>
+      <c r="A5" s="48">
+        <v>624</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="array" aca="1" ref="B5" ca="1">IFERROR(INDIRECT("'"&amp;A5&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3633,8 +3646,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>365</v>
+      <c r="A6" s="48">
+        <v>2607</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="array" aca="1" ref="B6" ca="1">IFERROR(INDIRECT("'"&amp;A6&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3666,8 +3679,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>423</v>
+      <c r="A7" s="48">
+        <v>1577</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="array" aca="1" ref="B7" ca="1">IFERROR(INDIRECT("'"&amp;A7&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3699,8 +3712,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>433</v>
+      <c r="A8" s="48">
+        <v>1561</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="array" aca="1" ref="B8" ca="1">IFERROR(INDIRECT("'"&amp;A8&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3732,8 +3745,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>708</v>
+      <c r="A9" s="48">
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="array" aca="1" ref="B9" ca="1">IFERROR(INDIRECT("'"&amp;A9&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3765,8 +3778,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>709</v>
+      <c r="A10" s="48">
+        <v>2468</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="array" aca="1" ref="B10" ca="1">IFERROR(INDIRECT("'"&amp;A10&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3798,8 +3811,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>816</v>
+      <c r="A11" s="48">
+        <v>7563</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="array" aca="1" ref="B11" ca="1">IFERROR(INDIRECT("'"&amp;A11&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3831,8 +3844,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1218</v>
+      <c r="A12" s="48">
+        <v>8085</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="array" aca="1" ref="B12" ca="1">IFERROR(INDIRECT("'"&amp;A12&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3864,8 +3877,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1391</v>
+      <c r="A13" s="48">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="array" aca="1" ref="B13" ca="1">IFERROR(INDIRECT("'"&amp;A13&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3897,8 +3910,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1640</v>
+      <c r="A14" s="48">
+        <v>3663</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="array" aca="1" ref="B14" ca="1">IFERROR(INDIRECT("'"&amp;A14&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3930,8 +3943,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1807</v>
+      <c r="A15" s="48">
+        <v>3061</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="array" aca="1" ref="B15" ca="1">IFERROR(INDIRECT("'"&amp;A15&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3963,8 +3976,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2095</v>
+      <c r="A16" s="48">
+        <v>4476</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="array" aca="1" ref="B16" ca="1">IFERROR(INDIRECT("'"&amp;A16&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -3996,8 +4009,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2180</v>
+      <c r="A17" s="48">
+        <v>1102</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(INDIRECT("'"&amp;A17&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4029,8 +4042,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2234</v>
+      <c r="A18" s="48">
+        <v>4903</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(INDIRECT("'"&amp;A18&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4062,8 +4075,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2539</v>
+      <c r="A19" s="48">
+        <v>4028</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="array" aca="1" ref="B19" ca="1">IFERROR(INDIRECT("'"&amp;A19&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4095,8 +4108,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2559</v>
+      <c r="A20" s="48">
+        <v>2202</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="array" aca="1" ref="B20" ca="1">IFERROR(INDIRECT("'"&amp;A20&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4128,8 +4141,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2590</v>
+      <c r="A21" s="48">
+        <v>8724</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="array" aca="1" ref="B21" ca="1">IFERROR(INDIRECT("'"&amp;A21&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4161,8 +4174,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2607</v>
+      <c r="A22" s="48">
+        <v>862</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="array" aca="1" ref="B22" ca="1">IFERROR(INDIRECT("'"&amp;A22&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4194,8 +4207,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3637</v>
+      <c r="A23" s="48">
+        <v>111</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="array" aca="1" ref="B23" ca="1">IFERROR(INDIRECT("'"&amp;A23&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4227,8 +4240,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4653</v>
+      <c r="A24" s="48">
+        <v>2847</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="array" aca="1" ref="B24" ca="1">IFERROR(INDIRECT("'"&amp;A24&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4260,8 +4273,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5113</v>
+      <c r="A25" s="48">
+        <v>254</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="array" aca="1" ref="B25" ca="1">IFERROR(INDIRECT("'"&amp;A25&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4293,8 +4306,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>5181</v>
+      <c r="A26" s="48">
+        <v>2582</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="array" aca="1" ref="B26" ca="1">IFERROR(INDIRECT("'"&amp;A26&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4326,8 +4339,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5310</v>
+      <c r="A27" s="48">
+        <v>1768</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="array" aca="1" ref="B27" ca="1">IFERROR(INDIRECT("'"&amp;A27&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4359,8 +4372,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>5407</v>
+      <c r="A28" s="48">
+        <v>1481</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="array" aca="1" ref="B28" ca="1">IFERROR(INDIRECT("'"&amp;A28&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4392,8 +4405,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>5490</v>
+      <c r="A29" s="48">
+        <v>687</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="array" aca="1" ref="B29" ca="1">IFERROR(INDIRECT("'"&amp;A29&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4425,8 +4438,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>5684</v>
+      <c r="A30" s="48">
+        <v>2687</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="array" aca="1" ref="B30" ca="1">IFERROR(INDIRECT("'"&amp;A30&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4458,8 +4471,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>5895</v>
+      <c r="A31" s="48">
+        <v>1574</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="array" aca="1" ref="B31" ca="1">IFERROR(INDIRECT("'"&amp;A31&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4491,8 +4504,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>6226</v>
+      <c r="A32" s="48">
+        <v>6078</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="array" aca="1" ref="B32" ca="1">IFERROR(INDIRECT("'"&amp;A32&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4524,8 +4537,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>6808</v>
+      <c r="A33" s="48">
+        <v>7174</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="array" aca="1" ref="B33" ca="1">IFERROR(INDIRECT("'"&amp;A33&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4557,8 +4570,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>7110</v>
+      <c r="A34" s="48">
+        <v>6036</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="array" aca="1" ref="B34" ca="1">IFERROR(INDIRECT("'"&amp;A34&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4590,8 +4603,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>7414</v>
+      <c r="A35" s="48">
+        <v>3015</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="array" aca="1" ref="B35" ca="1">IFERROR(INDIRECT("'"&amp;A35&amp;" Summary"&amp;"'!$J$31"),"")</f>
@@ -4622,7 +4635,10 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
+        <v>8729</v>
+      </c>
       <c r="B36" s="1" t="str">
         <f t="array" aca="1" ref="B36" ca="1">IFERROR(INDIRECT("'"&amp;A36&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4652,7 +4668,10 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="48">
+        <v>1189</v>
+      </c>
       <c r="B37" s="1" t="str">
         <f t="array" aca="1" ref="B37" ca="1">IFERROR(INDIRECT("'"&amp;A37&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4682,7 +4701,10 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>324</v>
+      </c>
       <c r="B38" s="1" t="str">
         <f t="array" aca="1" ref="B38" ca="1">IFERROR(INDIRECT("'"&amp;A38&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4712,7 +4734,10 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="48">
+        <v>6328</v>
+      </c>
       <c r="B39" s="1" t="str">
         <f t="array" aca="1" ref="B39" ca="1">IFERROR(INDIRECT("'"&amp;A39&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4742,7 +4767,10 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>27</v>
+      </c>
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">IFERROR(INDIRECT("'"&amp;A40&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4772,7 +4800,10 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
+        <v>4362</v>
+      </c>
       <c r="B41" s="1" t="str">
         <f t="array" aca="1" ref="B41" ca="1">IFERROR(INDIRECT("'"&amp;A41&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4802,7 +4833,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="48">
+        <v>7444</v>
+      </c>
       <c r="B42" s="1" t="str">
         <f t="array" aca="1" ref="B42" ca="1">IFERROR(INDIRECT("'"&amp;A42&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4832,7 +4866,10 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="48">
+        <v>3142</v>
+      </c>
       <c r="B43" s="1" t="str">
         <f t="array" aca="1" ref="B43" ca="1">IFERROR(INDIRECT("'"&amp;A43&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4862,7 +4899,10 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="48">
+        <v>5232</v>
+      </c>
       <c r="B44" s="1" t="str">
         <f t="array" aca="1" ref="B44" ca="1">IFERROR(INDIRECT("'"&amp;A44&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4892,7 +4932,10 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="48">
+        <v>9067</v>
+      </c>
       <c r="B45" s="1" t="str">
         <f t="array" aca="1" ref="B45" ca="1">IFERROR(INDIRECT("'"&amp;A45&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4922,7 +4965,10 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="48">
+        <v>1619</v>
+      </c>
       <c r="B46" s="1" t="str">
         <f t="array" aca="1" ref="B46" ca="1">IFERROR(INDIRECT("'"&amp;A46&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4952,7 +4998,10 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="48">
+        <v>3256</v>
+      </c>
       <c r="B47" s="1" t="str">
         <f t="array" aca="1" ref="B47" ca="1">IFERROR(INDIRECT("'"&amp;A47&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -4982,7 +5031,10 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="48">
+        <v>548</v>
+      </c>
       <c r="B48" s="1" t="str">
         <f t="array" aca="1" ref="B48" ca="1">IFERROR(INDIRECT("'"&amp;A48&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5012,7 +5064,10 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="48">
+        <v>6002</v>
+      </c>
       <c r="B49" s="1" t="str">
         <f t="array" aca="1" ref="B49" ca="1">IFERROR(INDIRECT("'"&amp;A49&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5042,7 +5097,10 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="48">
+        <v>9180</v>
+      </c>
       <c r="B50" s="1" t="str">
         <f t="array" aca="1" ref="B50" ca="1">IFERROR(INDIRECT("'"&amp;A50&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5072,7 +5130,10 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="48">
+        <v>834</v>
+      </c>
       <c r="B51" s="1" t="str">
         <f t="array" aca="1" ref="B51" ca="1">IFERROR(INDIRECT("'"&amp;A51&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5102,7 +5163,10 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="48">
+        <v>3130</v>
+      </c>
       <c r="B52" s="1" t="str">
         <f t="array" aca="1" ref="B52" ca="1">IFERROR(INDIRECT("'"&amp;A52&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5132,7 +5196,10 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="48">
+        <v>7211</v>
+      </c>
       <c r="B53" s="1" t="str">
         <f t="array" aca="1" ref="B53" ca="1">IFERROR(INDIRECT("'"&amp;A53&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5162,7 +5229,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="48">
+        <v>3322</v>
+      </c>
       <c r="B54" s="1" t="str">
         <f t="array" aca="1" ref="B54" ca="1">IFERROR(INDIRECT("'"&amp;A54&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5192,7 +5262,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="48">
+        <v>4373</v>
+      </c>
       <c r="B55" s="1" t="str">
         <f t="array" aca="1" ref="B55" ca="1">IFERROR(INDIRECT("'"&amp;A55&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5222,7 +5295,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="48">
+        <v>2457</v>
+      </c>
       <c r="B56" s="1" t="str">
         <f t="array" aca="1" ref="B56" ca="1">IFERROR(INDIRECT("'"&amp;A56&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5252,7 +5328,10 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="48">
+        <v>972</v>
+      </c>
       <c r="B57" s="1" t="str">
         <f t="array" aca="1" ref="B57" ca="1">IFERROR(INDIRECT("'"&amp;A57&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5282,7 +5361,10 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="48">
+        <v>8159</v>
+      </c>
       <c r="B58" s="1" t="str">
         <f t="array" aca="1" ref="B58" ca="1">IFERROR(INDIRECT("'"&amp;A58&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5312,7 +5394,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="48">
+        <v>2506</v>
+      </c>
       <c r="B59" s="1" t="str">
         <f t="array" aca="1" ref="B59" ca="1">IFERROR(INDIRECT("'"&amp;A59&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5342,7 +5427,10 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="48">
+        <v>5045</v>
+      </c>
       <c r="B60" s="1" t="str">
         <f t="array" aca="1" ref="B60" ca="1">IFERROR(INDIRECT("'"&amp;A60&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5372,7 +5460,10 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="48">
+        <v>2905</v>
+      </c>
       <c r="B61" s="1" t="str">
         <f t="array" aca="1" ref="B61" ca="1">IFERROR(INDIRECT("'"&amp;A61&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5402,7 +5493,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="48">
+        <v>120</v>
+      </c>
       <c r="B62" s="1" t="str">
         <f t="array" aca="1" ref="B62" ca="1">IFERROR(INDIRECT("'"&amp;A62&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5432,7 +5526,10 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="48">
+        <v>9101</v>
+      </c>
       <c r="B63" s="1" t="str">
         <f t="array" aca="1" ref="B63" ca="1">IFERROR(INDIRECT("'"&amp;A63&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5462,7 +5559,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="48">
+        <v>2875</v>
+      </c>
       <c r="B64" s="1" t="str">
         <f t="array" aca="1" ref="B64" ca="1">IFERROR(INDIRECT("'"&amp;A64&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5492,7 +5592,10 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="48">
+        <v>9134</v>
+      </c>
       <c r="B65" s="1" t="str">
         <f t="array" aca="1" ref="B65" ca="1">IFERROR(INDIRECT("'"&amp;A65&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5522,7 +5625,10 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="48">
+        <v>2220</v>
+      </c>
       <c r="B66" s="1" t="str">
         <f t="array" aca="1" ref="B66" ca="1">IFERROR(INDIRECT("'"&amp;A66&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5552,7 +5658,10 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="48">
+        <v>1700</v>
+      </c>
       <c r="B67" s="1" t="str">
         <f t="array" aca="1" ref="B67" ca="1">IFERROR(INDIRECT("'"&amp;A67&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5582,7 +5691,10 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="48">
+        <v>9059</v>
+      </c>
       <c r="B68" s="1" t="str">
         <f t="array" aca="1" ref="B68" ca="1">IFERROR(INDIRECT("'"&amp;A68&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5612,7 +5724,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="48">
+        <v>1884</v>
+      </c>
       <c r="B69" s="1" t="str">
         <f t="array" aca="1" ref="B69" ca="1">IFERROR(INDIRECT("'"&amp;A69&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5642,7 +5757,10 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="48">
+        <v>3459</v>
+      </c>
       <c r="B70" s="1" t="str">
         <f t="array" aca="1" ref="B70" ca="1">IFERROR(INDIRECT("'"&amp;A70&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5672,7 +5790,10 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="48">
+        <v>9038</v>
+      </c>
       <c r="B71" s="1" t="str">
         <f t="array" aca="1" ref="B71" ca="1">IFERROR(INDIRECT("'"&amp;A71&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5702,7 +5823,10 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="48">
+        <v>5809</v>
+      </c>
       <c r="B72" s="1" t="str">
         <f t="array" aca="1" ref="B72" ca="1">IFERROR(INDIRECT("'"&amp;A72&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5732,7 +5856,10 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="48">
+        <v>4598</v>
+      </c>
       <c r="B73" s="1" t="str">
         <f t="array" aca="1" ref="B73" ca="1">IFERROR(INDIRECT("'"&amp;A73&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5762,7 +5889,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="48">
+        <v>5635</v>
+      </c>
       <c r="B74" s="1" t="str">
         <f t="array" aca="1" ref="B74" ca="1">IFERROR(INDIRECT("'"&amp;A74&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5792,7 +5922,10 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="48">
+        <v>5993</v>
+      </c>
       <c r="B75" s="1" t="str">
         <f t="array" aca="1" ref="B75" ca="1">IFERROR(INDIRECT("'"&amp;A75&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5822,7 +5955,10 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="48">
+        <v>9148</v>
+      </c>
       <c r="B76" s="1" t="str">
         <f t="array" aca="1" ref="B76" ca="1">IFERROR(INDIRECT("'"&amp;A76&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5852,7 +5988,10 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="48">
+        <v>2106</v>
+      </c>
       <c r="B77" s="1" t="str">
         <f t="array" aca="1" ref="B77" ca="1">IFERROR(INDIRECT("'"&amp;A77&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5882,7 +6021,10 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="48">
+        <v>4</v>
+      </c>
       <c r="B78" s="1" t="str">
         <f t="array" aca="1" ref="B78" ca="1">IFERROR(INDIRECT("'"&amp;A78&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5912,7 +6054,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="str">
         <f t="array" aca="1" ref="B79" ca="1">IFERROR(INDIRECT("'"&amp;A79&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5942,7 +6084,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="str">
         <f t="array" aca="1" ref="B80" ca="1">IFERROR(INDIRECT("'"&amp;A80&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -5972,7 +6114,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="str">
         <f t="array" aca="1" ref="B81" ca="1">IFERROR(INDIRECT("'"&amp;A81&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6002,7 +6144,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="str">
         <f t="array" aca="1" ref="B82" ca="1">IFERROR(INDIRECT("'"&amp;A82&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6032,7 +6174,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="str">
         <f t="array" aca="1" ref="B83" ca="1">IFERROR(INDIRECT("'"&amp;A83&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6062,7 +6204,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="str">
         <f t="array" aca="1" ref="B84" ca="1">IFERROR(INDIRECT("'"&amp;A84&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6092,7 +6234,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="str">
         <f t="array" aca="1" ref="B85" ca="1">IFERROR(INDIRECT("'"&amp;A85&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6122,7 +6264,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="str">
         <f t="array" aca="1" ref="B86" ca="1">IFERROR(INDIRECT("'"&amp;A86&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6152,7 +6294,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="str">
         <f t="array" aca="1" ref="B87" ca="1">IFERROR(INDIRECT("'"&amp;A87&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6182,7 +6324,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="str">
         <f t="array" aca="1" ref="B88" ca="1">IFERROR(INDIRECT("'"&amp;A88&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6212,7 +6354,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="str">
         <f t="array" aca="1" ref="B89" ca="1">IFERROR(INDIRECT("'"&amp;A89&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6242,7 +6384,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="str">
         <f t="array" aca="1" ref="B90" ca="1">IFERROR(INDIRECT("'"&amp;A90&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6272,7 +6414,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="str">
         <f t="array" aca="1" ref="B91" ca="1">IFERROR(INDIRECT("'"&amp;A91&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6302,7 +6444,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="str">
         <f t="array" aca="1" ref="B92" ca="1">IFERROR(INDIRECT("'"&amp;A92&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6332,7 +6474,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="str">
         <f t="array" aca="1" ref="B93" ca="1">IFERROR(INDIRECT("'"&amp;A93&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6362,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="str">
         <f t="array" aca="1" ref="B94" ca="1">IFERROR(INDIRECT("'"&amp;A94&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6392,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="str">
         <f t="array" aca="1" ref="B95" ca="1">IFERROR(INDIRECT("'"&amp;A95&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6422,7 +6564,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="str">
         <f t="array" aca="1" ref="B96" ca="1">IFERROR(INDIRECT("'"&amp;A96&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6452,7 +6594,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="str">
         <f t="array" aca="1" ref="B97" ca="1">IFERROR(INDIRECT("'"&amp;A97&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6482,7 +6624,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="str">
         <f t="array" aca="1" ref="B98" ca="1">IFERROR(INDIRECT("'"&amp;A98&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6512,7 +6654,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="str">
         <f t="array" aca="1" ref="B99" ca="1">IFERROR(INDIRECT("'"&amp;A99&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6542,7 +6684,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="str">
         <f t="array" aca="1" ref="B100" ca="1">IFERROR(INDIRECT("'"&amp;A100&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6572,7 +6714,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="str">
         <f t="array" aca="1" ref="B101" ca="1">IFERROR(INDIRECT("'"&amp;A101&amp;" Summary"&amp;"'!$J$31"),"")</f>
         <v/>
@@ -6699,9 +6841,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.thebluealliance.com/team/2056/2023" xr:uid="{8B9AE94F-CD49-4797-99CF-453FCAA22D07}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.thebluealliance.com/team/78/2023" xr:uid="{6C9E02B8-C53D-4E4F-B0F8-6D9F554CC0E2}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.thebluealliance.com/team/118/2023" xr:uid="{5A085C9F-874C-45B4-997E-6DDB72FFEC29}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.thebluealliance.com/team/624/2023" xr:uid="{73ECF412-39D5-4965-A0F8-DE004BA1E55D}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.thebluealliance.com/team/2607/2023" xr:uid="{7DC90C6B-32A1-4EED-96D4-C7D9B71B91D0}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.thebluealliance.com/team/1577/2023" xr:uid="{39B4C966-0E4D-4B23-9D2D-D1F3B17BB895}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.thebluealliance.com/team/1561/2023" xr:uid="{17B1B95A-CFDD-4EA7-860B-80A573FEAFC4}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.thebluealliance.com/team/70/2023" xr:uid="{B0E7E115-6A68-4B52-936B-B4919540FA71}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.thebluealliance.com/team/2468/2023" xr:uid="{EF421D7F-09CA-4B87-9772-60F1B7FC069A}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.thebluealliance.com/team/7563/2023" xr:uid="{60048B68-46D7-4D2A-9316-1569BD8E2573}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.thebluealliance.com/team/8085/2023" xr:uid="{2CC77219-6B05-41B9-9FF9-92028AB4C163}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.thebluealliance.com/team/33/2023" xr:uid="{6381540E-836D-4BCF-9B14-E30A62572E43}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.thebluealliance.com/team/3663/2023" xr:uid="{916761B5-7014-4B7A-9A12-1AD47AE3617C}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.thebluealliance.com/team/3061/2023" xr:uid="{5A0A9770-00E4-45E7-B6E8-2FE2CCE4F000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://www.thebluealliance.com/team/4476/2023" xr:uid="{89CCD9C1-FA1C-46BC-AD48-BD93D68C334E}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.thebluealliance.com/team/1102/2023" xr:uid="{64587EB1-4AC0-4763-ABC2-C2268EE58ABF}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.thebluealliance.com/team/4903/2023" xr:uid="{43D3BB8E-3076-4B8E-A649-D9ACECC3A8FC}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.thebluealliance.com/team/4028/2023" xr:uid="{DE873802-E60C-4B72-90E7-2CB8C8E0A836}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.thebluealliance.com/team/2202/2023" xr:uid="{4AD60943-58EA-475F-9A92-3E523CD97CCF}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.thebluealliance.com/team/8724/2023" xr:uid="{6AC3582D-5FF2-4E08-8ED9-75BEDAF5CF0D}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://www.thebluealliance.com/team/862/2023" xr:uid="{214D9178-11C2-4C6E-B487-BF1FE407701E}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://www.thebluealliance.com/team/111/2023" xr:uid="{E632ECA1-92CC-4ADB-B7ED-CDD2633510A8}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://www.thebluealliance.com/team/2847/2023" xr:uid="{AB533A4F-C197-4DC6-A63A-9B2C4B34BE7C}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://www.thebluealliance.com/team/254/2023" xr:uid="{6B063AD8-ECDC-40D4-8ED6-04466FD16CDB}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://www.thebluealliance.com/team/2582/2023" xr:uid="{8A753E65-9D8B-4224-BF77-0BBB81FA7C4F}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://www.thebluealliance.com/team/1768/2023" xr:uid="{088CFC7E-47C1-4E27-85BD-E5C9620D3C0C}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://www.thebluealliance.com/team/1481/2023" xr:uid="{FA3BAB67-7C73-4C12-838F-7851722DA867}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://www.thebluealliance.com/team/687/2023" xr:uid="{7B7C2354-F16F-4476-8D9D-49AF4A70332F}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.thebluealliance.com/team/2687/2023" xr:uid="{43C77DEC-4F1F-4DC1-854C-8EEAF62BF29D}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://www.thebluealliance.com/team/1574/2023" xr:uid="{3AFCA8FD-7F97-4F00-8853-0442537BF986}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://www.thebluealliance.com/team/6078/2023" xr:uid="{7084DC3E-7472-4017-ADE6-78EC0D4E1C62}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://www.thebluealliance.com/team/7174/2023" xr:uid="{8FE6C797-E528-424A-93E5-26CB18C43217}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://www.thebluealliance.com/team/6036/2023" xr:uid="{048787B3-D650-4026-8554-601A7D9B4B52}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://www.thebluealliance.com/team/3015/2023" xr:uid="{486F105B-FFBB-4CEC-A683-33D11C399381}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://www.thebluealliance.com/team/8729/2023" xr:uid="{BBDD0AC0-77BE-4891-855D-C411F0A5CB6B}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://www.thebluealliance.com/team/1189/2023" xr:uid="{E5C6726E-D136-414F-BBE6-B02BCC3E018E}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://www.thebluealliance.com/team/324/2023" xr:uid="{9C9CDEC2-5C05-423F-AB81-F592373F798D}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://www.thebluealliance.com/team/6328/2023" xr:uid="{B1FB4889-0ACE-44AC-BBBA-3B93B6F62480}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://www.thebluealliance.com/team/27/2023" xr:uid="{9379E73F-1D64-4ED1-A5C8-09B7E7195FCF}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://www.thebluealliance.com/team/4362/2023" xr:uid="{E7C85075-298B-4E2C-A258-47357DD34CED}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://www.thebluealliance.com/team/7444/2023" xr:uid="{D08A1ED7-1E74-44AF-A1D2-572389D3390F}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://www.thebluealliance.com/team/3142/2023" xr:uid="{FDC3B1A7-71D0-48B9-8BEE-42BD1875923E}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://www.thebluealliance.com/team/5232/2023" xr:uid="{F99CF963-8AEF-439D-AC8B-B1F574F7B5E7}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://www.thebluealliance.com/team/9067/2023" xr:uid="{EB80E2DA-2470-4613-B993-6A7745A3ED23}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://www.thebluealliance.com/team/1619/2023" xr:uid="{4D875E27-1D12-4C6A-888E-0C0012E121DD}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://www.thebluealliance.com/team/3256/2023" xr:uid="{A8D82598-4B15-404F-A22B-8B3DAC3EDC06}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://www.thebluealliance.com/team/548/2023" xr:uid="{B978C865-C8CA-4AFD-BFF0-C603D56EDB84}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://www.thebluealliance.com/team/6002/2023" xr:uid="{5AE9A611-4CE7-4F53-8946-0E0925D270DB}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://www.thebluealliance.com/team/9180/2023" xr:uid="{2A752512-E9BA-4945-9261-FB6B46B96225}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://www.thebluealliance.com/team/834/2023" xr:uid="{AF2299EF-7F06-4BE0-A82B-6ECC5973CE47}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://www.thebluealliance.com/team/3130/2023" xr:uid="{E4952A0C-297F-475B-853D-49AEA88FE752}"/>
+    <hyperlink ref="A53" r:id="rId52" display="https://www.thebluealliance.com/team/7211/2023" xr:uid="{D80161A6-F244-43C0-95C7-DBCFE1EE27A2}"/>
+    <hyperlink ref="A54" r:id="rId53" display="https://www.thebluealliance.com/team/3322/2023" xr:uid="{F09D8373-17C2-4DBE-86C0-F9A6BF0C3D6E}"/>
+    <hyperlink ref="A55" r:id="rId54" display="https://www.thebluealliance.com/team/4373/2023" xr:uid="{CC8CD8B8-E8C4-4270-ACC2-3F8989486326}"/>
+    <hyperlink ref="A56" r:id="rId55" display="https://www.thebluealliance.com/team/2457/2023" xr:uid="{EE4B5BF6-1B2C-446D-A36A-6244FADCF56B}"/>
+    <hyperlink ref="A57" r:id="rId56" display="https://www.thebluealliance.com/team/972/2023" xr:uid="{8D7867E0-F183-4800-BCA6-215CAFEF7DA1}"/>
+    <hyperlink ref="A58" r:id="rId57" display="https://www.thebluealliance.com/team/8159/2023" xr:uid="{1D1DC744-AA15-4EE9-853D-B6A575AA2708}"/>
+    <hyperlink ref="A59" r:id="rId58" display="https://www.thebluealliance.com/team/2506/2023" xr:uid="{5549B44E-0CC9-40B3-87CF-CA24475FA071}"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://www.thebluealliance.com/team/5045/2023" xr:uid="{A0063372-8714-43BE-93BB-D0FF216F7F9F}"/>
+    <hyperlink ref="A61" r:id="rId60" display="https://www.thebluealliance.com/team/2905/2023" xr:uid="{99AF6DC9-5613-409B-B961-3DB8D42FD927}"/>
+    <hyperlink ref="A62" r:id="rId61" display="https://www.thebluealliance.com/team/120/2023" xr:uid="{5E6E9663-ACEA-4F43-AA6F-408E2E81C0CC}"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://www.thebluealliance.com/team/9101/2023" xr:uid="{15453CBE-2999-412E-8099-B1541542E31A}"/>
+    <hyperlink ref="A64" r:id="rId63" display="https://www.thebluealliance.com/team/2875/2023" xr:uid="{26A62427-08AB-4164-B600-5A70158275E2}"/>
+    <hyperlink ref="A65" r:id="rId64" display="https://www.thebluealliance.com/team/9134/2023" xr:uid="{E2B31CF5-9DB0-46C7-95A4-A48848A95AEC}"/>
+    <hyperlink ref="A66" r:id="rId65" display="https://www.thebluealliance.com/team/2220/2023" xr:uid="{66CD64C6-0D31-439C-AF51-44D50FCB7412}"/>
+    <hyperlink ref="A67" r:id="rId66" display="https://www.thebluealliance.com/team/1700/2023" xr:uid="{107F1659-81A8-48A5-A741-8977AA25510D}"/>
+    <hyperlink ref="A68" r:id="rId67" display="https://www.thebluealliance.com/team/9059/2023" xr:uid="{65EE9607-48B6-45D4-9703-129758ED2475}"/>
+    <hyperlink ref="A69" r:id="rId68" display="https://www.thebluealliance.com/team/1884/2023" xr:uid="{1C6B0702-8CCB-4C08-8990-31E4EFEA9CEC}"/>
+    <hyperlink ref="A70" r:id="rId69" display="https://www.thebluealliance.com/team/3459/2023" xr:uid="{41C79B04-653C-472F-BB26-EF8373AEA5F5}"/>
+    <hyperlink ref="A71" r:id="rId70" display="https://www.thebluealliance.com/team/9038/2023" xr:uid="{7D323917-05BF-4F55-916D-8DDD77CA3FDC}"/>
+    <hyperlink ref="A72" r:id="rId71" display="https://www.thebluealliance.com/team/5809/2023" xr:uid="{6B49A160-D2D6-4669-A746-54D47EDD72B3}"/>
+    <hyperlink ref="A73" r:id="rId72" display="https://www.thebluealliance.com/team/4598/2023" xr:uid="{452CCCA0-1AD8-4656-9412-7D1971D2ACCD}"/>
+    <hyperlink ref="A74" r:id="rId73" display="https://www.thebluealliance.com/team/5635/2023" xr:uid="{AC8C5D88-A584-4059-9481-68BB9DA5ECB1}"/>
+    <hyperlink ref="A75" r:id="rId74" display="https://www.thebluealliance.com/team/5993/2023" xr:uid="{33EFE19C-7706-4855-97D3-626A7F75F803}"/>
+    <hyperlink ref="A76" r:id="rId75" display="https://www.thebluealliance.com/team/9148/2023" xr:uid="{697801A2-DFE9-4034-A733-C08548EAE784}"/>
+    <hyperlink ref="A77" r:id="rId76" display="https://www.thebluealliance.com/team/2106/2023" xr:uid="{B241BAA2-A18B-4708-8CA3-C3742EA47460}"/>
+    <hyperlink ref="A78" r:id="rId77" display="https://www.thebluealliance.com/team/4/2023" xr:uid="{0EB65F32-E5EA-4498-AF47-B1BCD752841F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>